--- a/Fuzzing_rationale.xlsx
+++ b/Fuzzing_rationale.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanbrigham/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C6AB1-FA5C-764F-8639-C46B6FC2DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,15 +52,6 @@
     <t>zlib1g</t>
   </si>
   <si>
-    <t>compression and decompression program (.zip?)</t>
-  </si>
-  <si>
-    <t>I should be able to test this by 
-compressing and uncompressing miscellaneous files.
-Use the commands that I found here: 
-https://www.systutorials.com/docs/linux/man/n-zlib/</t>
-  </si>
-  <si>
     <t>libacl1</t>
   </si>
   <si>
@@ -59,20 +59,14 @@
 Control Lists</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.usenix.org/legacy/publications/library/proce
-edings/usenix03/tech/freenix03/full_papers/gruenbacher
-/gruenbacher_html/main.html 
-</t>
-  </si>
-  <si>
     <t>libbz2-1.0</t>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">bzip2 is a freely available, patent free, high-quality data 
 compressor. It typically compresses files to within 10% to 15% 
@@ -82,10 +76,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/stretch/libbz2-1.0</t>
     </r>
@@ -107,27 +101,27 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>"blkid" command terminal command</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://man7.org/linux/man-pages/man8/blkid.8.html</t>
     </r>
@@ -138,9 +132,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Linux-PAM is a system of libraries that handle the 
 authentication tasks of applications (services) on the system.
@@ -152,18 +146,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://linux.die.net/man/8/pam</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -174,9 +168,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>a tool to install and manipulate debian packages 
  dpkg is a tool to install, build, remove and manage Debian
@@ -189,27 +183,27 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://man7.org/linux/man-pages/man1/dpkg.1.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -234,18 +228,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">For getting general information about the package </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>h
 ttps://www.gnu.org/software/coreutils/</t>
@@ -254,19 +248,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://en.wikipedia.org/wiki/List_of_GNU_Core_Utilitie
 s_commands</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -277,9 +271,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>The libuuid library generates and parses 128-bit Universally
  Unique IDs (UUIDs). A UUID is an identifier that is unique 
@@ -290,45 +284,40 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/sid/libuuid1</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t>It looks like this can be done with simple use of the 
-computer. Maybe I can just use the comptuer for some 
-of my homework sometimes.</t>
-  </si>
-  <si>
     <t>passwd</t>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">this just takes the passsword and changes the password for 
 different users. 
@@ -336,18 +325,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://man7.org/linux/man-pages/man1/passwd.1.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -362,18 +351,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://linux.die.net/man/8/adduser</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> this uses the command 
 line to add users to the comptuer and the current process.</t>
@@ -382,9 +371,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>I can fuzz this module using "useradd" and other
 command line commands. Here is a good resource for 
@@ -392,18 +381,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">e </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://access.redhat.com/docum
 entation/en-us/red_hat_enterprise_linux/6/html/deploy
@@ -416,20 +405,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://manpages.ubuntu.com/manpages/xenial/man7
 debconf.7.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> "Debconf provides a consistent interface for 
 configuring packages, allowing you  to  choose from several 
@@ -444,10 +433,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>installed packages</t>
     </r>
@@ -458,19 +447,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://manpages.debian.org/buster/libpam-runtime/
 pam.7.en.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> this package is meant to do authentication 
 tasks that login and su pass along</t>
@@ -486,9 +475,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>"'sed' is a stream editor.  A stream editor is used to perform 
 basic text transformations on an input stream (a file or input 
@@ -500,27 +489,27 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.gnu.org/software/sed/manual/sed.txt</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -531,18 +520,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pkgs.org/download/perl-base</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> this is the only resource 
 that I could find which realyl talks about the module and it
@@ -559,9 +548,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"extended attribute handling - shared library
 Contains the runtime environment required by programs 
@@ -570,18 +559,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://developer.puri.sm/licenses/Librem5/Birch/libattr1.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -589,36 +578,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Here are all of the commands that I can run in this
 module</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://manpages.debian.org/unstable/libattr1
 -dev/index.html.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Using some of these should allow me 
 to effectively fuzz the system.</t>
@@ -630,18 +619,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/sid/debianutils</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -649,36 +638,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Here are some of the commands that I can fuzz it with: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://manpages.debian.org/stretch/debianutils/index
 .html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -689,36 +678,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>"The  lsb  package provides infrastructure for installing
 Linux Standard Base applications on Debian."</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.unix.com/man-page/linux/8/lsb/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">  Essentially,
 these commands extend the POSIX influence to the rest of
@@ -726,18 +715,14 @@
     </r>
   </si>
   <si>
-    <t>I might be able to find scripts, but this just seems like 
-another general use package</t>
-  </si>
-  <si>
     <t>libgpg-error0</t>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"Libgpg-error is a small library that originally defined common error values for all 
 GnuPG components. Among these are GPG, GPGSM, GPGME, GPG-Agent, 
@@ -747,16 +732,13 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://gnupg.org/software/libgpg-error/index.html</t>
     </r>
-  </si>
-  <si>
-    <t>debug</t>
   </si>
   <si>
     <t>util-linux</t>
@@ -771,36 +753,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://en.wikipedia.org/wiki/Util-linux</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> can also pull this 
 and run the tests: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/karelzak/util-linux</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -814,19 +796,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Here are some of the commands that I can use 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://manpages.debian.org/jessie/bsdutils/index.html</t>
     </r>
@@ -847,9 +829,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Debian base system miscellaneous files
 This package contains the basic filesystem hierarchy of a Debian system, and
@@ -860,44 +842,40 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://helpmanual.io/packages/apt/base-files/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t>Not really sure how I can fuzz this one besides just using 
-the computer</t>
-  </si>
-  <si>
     <t>findutils</t>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>http://linux-command.org/en/findutils.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> The GNU Find Utilities or findutils is a 
 GNU package which offers basic file searching utilities to search the systems 
@@ -909,9 +887,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">I can use the find, locate, updatedb, and xargs
  commands. Here is a link with some ideas: 
@@ -919,18 +897,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.gnu.org/software/findutils/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -946,27 +924,27 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">I can zip some files with this module to test it. Here 
 it is: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://linux.die.net/man/1/gzip</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -985,18 +963,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://man7.org/linux/man-pages/man3/pam.3.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 https://linux.die.net/man/8/pam
@@ -1011,26 +989,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://manpages.ubuntu.com/manpages/focal/en/man1/login.1.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> The login 
 program is used to establish a new session with the system. It is normally
@@ -1043,26 +1021,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">examples for login command: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.computerhope.com/unix/ulogin.htm</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1073,9 +1051,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"The ncurses library routines are a terminal-independent method of updating 
 character screens with reasonable optimization. This package contains the 
@@ -1085,10 +1063,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/unstable/ncurses-bin</t>
     </r>
@@ -1108,18 +1086,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">I can run some of these programs... I think </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www
 .studymite.com/cpp/examples</t>
@@ -1131,26 +1109,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">another package which creates a UI </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://linux.die.net/man/3/ncurses</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1174,9 +1152,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"gpgv is actually a stripped-down version of gpg which is only able to check 
 signatures. It is somewhat smaller than the fully-blown gpg and uses a different
@@ -1186,10 +1164,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/sid/gpgv</t>
     </r>
@@ -1223,9 +1201,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"These are the canonical master copies of the user database files (/etc/passwd 
 and /etc/group), containing the Debian-allocated user and group IDs. The
@@ -1235,10 +1213,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://manpages.debian.org/testing/base-passwd/update-passwd.8.en.html</t>
     </r>
@@ -1253,9 +1231,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"libsepol allows programs to easily modify SELinux binary policies. This means 
 changing the default values for booleans, or reading the policy for analysis."
@@ -1263,18 +1241,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/sid/libsepol1-dev</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1301,27 +1279,27 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Here is an example that I can use to change the Selinux
 policy: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://linuxhint.com/set_policy_selinux/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1344,19 +1322,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://manpages.debian.org/jessie/sysvinit-
 utils/index.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Some of the commands that I can use.</t>
     </r>
@@ -1389,9 +1367,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>"This package provides the necessary infrastructure for basic TCP/IP based 
 networking. In particular, it supplies common name-to-number mappings in 
@@ -1399,37 +1377,33 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/sid/netbase
 https://helpmanual.io/packages/apt/netbase/</t>
     </r>
   </si>
   <si>
-    <t>If I run basic networking programs, this should 
-effectively fuzz this package</t>
-  </si>
-  <si>
     <t>readline-common</t>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"The GNU readline library aids in the consistency of user interface across 
 discrete programs that need to provide a command line interface.
@@ -1439,10 +1413,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/sid/readline-common</t>
     </r>
@@ -1457,9 +1431,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"GNU Bash is an sh-compatible command language interpreter that executes
  commands read from the standard input or from a file"
@@ -1467,18 +1441,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://launchpad.net/ubuntu/+source/bash</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1486,9 +1460,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">General command line use from files and from the stdio
 should fuzz this. Here are command options:
@@ -1496,18 +1470,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://linux.die.net/man/1/bash</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1529,9 +1503,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">This package provides command line and full screen utilities for browsing procfs, 
 a "pseudo" file system dynamically generated by the kernel to provide information
@@ -1541,10 +1515,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/sid/procps</t>
     </r>
@@ -1563,9 +1537,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"Debian policy mandates that user changes to configuration files must be 
 preserved during package upgrades. The easy way to achieve this behavior 
@@ -1575,10 +1549,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/sid/ucf</t>
     </r>
@@ -1586,27 +1560,27 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">can just use the ucf command </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>http://manpages.ubuntu.com/manpages/bionic/man1/ucf
 .1.html</t>
@@ -1618,9 +1592,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"The PCRE library is a set of functions that implement regular expression 
 pattern matching using the same syntax and semantics as Perl 5. PCRE has its 
@@ -1630,18 +1604,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.pcre.org/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1649,37 +1623,37 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>use programs and the command line that 
 I can use regex for.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://en.wikipedia.org/wiki/Perl_Compatible_Regular_
 Expressions</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1690,9 +1664,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">"e2fsprogs (sometimes called the e2fs programs) is a set of utilities for 
 maintaining the ext2, ext3 and ext4 file systems. Since those file systems are 
@@ -1701,18 +1675,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://en.wikipedia.org/wiki/E2fsprogs</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1720,9 +1694,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Here is the wiki page that has a bunch of commands 
 that I can use to fuzz the system: 
@@ -1730,18 +1704,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://en.wikipedia.org/wiki/E2fsprogs</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1755,9 +1729,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">This package provides the mount(8), umount(8),
 swapon(8), swapoff(8), and losetup(8) commands.
@@ -1765,48 +1739,48 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://packages.debian.org/sid/mount.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> I can also use 
 this:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://manpages.ubuntu.com/manpages/xenial/man8/m
 ount.8.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1825,21 +1799,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.oracle.com/cd/E86824_01/html/E54763/
 slsh-1.html</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1855,83 +1829,140 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.freebsd.org/cgi/man.cgi?
 query=editline&amp;sektion=3&amp;apropos=0&amp;manpath=freebsd</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 This looks like something that I have to make a c-program
  for but I am not sure. </t>
     </r>
+  </si>
+  <si>
+    <t>I should be able to test this by 
+compressing and uncompressing miscellaneous files.
+Use the commands that I found here: 
+https://www.systutorials.com/docs/linux/man/n-zlib/. Think about tar.gz files</t>
+  </si>
+  <si>
+    <t>compression and decompression program (.gz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is access controls… collect data using chmod
+https://www.usenix.org/legacy/publications/library/proceedings/usenix03/tech/freenix03/full_papers/gruenbacher/gruenbacher_html/main.html 
+</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/1089741/how-do-i-obtain-use-libuuid</t>
+  </si>
+  <si>
+    <t>https://refspecs.linuxbase.org/LSB_3.0.0/LSB-PDA/LSB-PDA/command.html#AEN21875</t>
+  </si>
+  <si>
+    <t>Do GPG</t>
+  </si>
+  <si>
+    <t>just use and manipulate the file system</t>
+  </si>
+  <si>
+    <t>If I run basic networking programs, this should 
+effectively fuzz this package. I think that
+using google and youtube should work on this one.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1940,7 +1971,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1980,89 +2011,81 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2252,27 +2275,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.86"/>
-    <col customWidth="1" min="9" max="9" width="77.29"/>
-    <col customWidth="1" min="10" max="10" width="53.86"/>
-    <col customWidth="1" min="11" max="11" width="60.14"/>
-    <col customWidth="1" min="12" max="12" width="64.0"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="77.33203125" customWidth="1"/>
+    <col min="10" max="10" width="53.83203125" customWidth="1"/>
+    <col min="11" max="11" width="60.1640625" customWidth="1"/>
+    <col min="12" max="12" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2333,34 +2361,34 @@
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6">
-        <v>207515.0</v>
+        <v>207515</v>
       </c>
       <c r="D2" s="7">
-        <v>185515.0</v>
+        <v>185515</v>
       </c>
       <c r="E2" s="7">
-        <v>6283.0</v>
+        <v>6283</v>
       </c>
       <c r="F2" s="7">
-        <v>15699.0</v>
+        <v>15699</v>
       </c>
       <c r="G2" s="5">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2394,1499 +2422,1499 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>207514</v>
+      </c>
+      <c r="D3" s="7">
+        <v>186504</v>
+      </c>
+      <c r="E3" s="7">
+        <v>6928</v>
+      </c>
+      <c r="F3" s="7">
+        <v>14037</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
-        <v>207514.0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>186504.0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>6928.0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>14037.0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>45.0</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
+      <c r="C4" s="6">
+        <v>207514</v>
+      </c>
+      <c r="D4" s="7">
+        <v>179342</v>
+      </c>
+      <c r="E4" s="7">
+        <v>13035</v>
+      </c>
+      <c r="F4" s="7">
+        <v>15108</v>
+      </c>
+      <c r="G4" s="5">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
-        <v>207514.0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>179342.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>13035.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>15108.0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>29.0</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9" t="s">
+      <c r="C5" s="6">
+        <v>207513</v>
+      </c>
+      <c r="D5" s="7">
+        <v>155885</v>
+      </c>
+      <c r="E5" s="7">
+        <v>35190</v>
+      </c>
+      <c r="F5" s="7">
+        <v>16363</v>
+      </c>
+      <c r="G5" s="5">
+        <v>75</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6">
-        <v>207513.0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>155885.0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>35190.0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>16363.0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>75.0</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="9" t="s">
+      <c r="C6" s="6">
+        <v>207513</v>
+      </c>
+      <c r="D6" s="7">
+        <v>165995</v>
+      </c>
+      <c r="E6" s="7">
+        <v>26366</v>
+      </c>
+      <c r="F6" s="7">
+        <v>15088</v>
+      </c>
+      <c r="G6" s="5">
+        <v>64</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="6">
+        <v>207512</v>
+      </c>
+      <c r="D7" s="7">
+        <v>191040</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2796</v>
+      </c>
+      <c r="F7" s="7">
+        <v>13633</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6">
-        <v>207513.0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>165995.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>26366.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>15088.0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>64.0</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
-        <v>207512.0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>191040.0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2796.0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>13633.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>43.0</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9" t="s">
+      <c r="C8" s="6">
+        <v>207512</v>
+      </c>
+      <c r="D8" s="7">
+        <v>187503</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6020</v>
+      </c>
+      <c r="F8" s="7">
+        <v>13941</v>
+      </c>
+      <c r="G8" s="5">
+        <v>48</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6">
-        <v>207512.0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>187503.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6020.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>13941.0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>48.0</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11" t="s">
+      <c r="C9" s="6">
+        <v>207511</v>
+      </c>
+      <c r="D9" s="7">
+        <v>185319</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7448</v>
+      </c>
+      <c r="F9" s="7">
+        <v>14702</v>
+      </c>
+      <c r="G9" s="5">
+        <v>42</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6">
-        <v>207511.0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>185319.0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>7448.0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>14702.0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>42.0</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9" t="s">
+      <c r="C10" s="6">
+        <v>207510</v>
+      </c>
+      <c r="D10" s="7">
+        <v>145047</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45434</v>
+      </c>
+      <c r="F10" s="7">
+        <v>16986</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J10" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="6">
+        <v>207510</v>
+      </c>
+      <c r="D11" s="7">
+        <v>181393</v>
+      </c>
+      <c r="E11" s="7">
+        <v>12068</v>
+      </c>
+      <c r="F11" s="7">
+        <v>14003</v>
+      </c>
+      <c r="G11" s="5">
+        <v>46</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6">
-        <v>207510.0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>145047.0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>45434.0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>16986.0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>43.0</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9" t="s">
+      <c r="J11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="7" t="s">
+    </row>
+    <row r="12" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C12" s="6">
+        <v>207509</v>
+      </c>
+      <c r="D12" s="7">
+        <v>186168</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7117</v>
+      </c>
+      <c r="F12" s="7">
+        <v>14197</v>
+      </c>
+      <c r="G12" s="5">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6">
-        <v>207510.0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>181393.0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>12068.0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>14003.0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>46.0</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="7" t="s">
+    </row>
+    <row r="13" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="6">
+        <v>207509</v>
+      </c>
+      <c r="D13" s="7">
+        <v>191066</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1683</v>
+      </c>
+      <c r="F13" s="7">
+        <v>14738</v>
+      </c>
+      <c r="G13" s="5">
+        <v>22</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6">
-        <v>207509.0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>186168.0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>7117.0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>14197.0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9" t="s">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="C14" s="6">
+        <v>207509</v>
+      </c>
+      <c r="D14" s="7">
+        <v>172676</v>
+      </c>
+      <c r="E14" s="7">
+        <v>20650</v>
+      </c>
+      <c r="F14" s="7">
+        <v>14127</v>
+      </c>
+      <c r="G14" s="5">
+        <v>56</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6">
-        <v>207509.0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>191066.0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1683.0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>14738.0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>22.0</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="11" t="s">
+    </row>
+    <row r="15" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C15" s="6">
+        <v>207509</v>
+      </c>
+      <c r="D15" s="7">
+        <v>169002</v>
+      </c>
+      <c r="E15" s="7">
+        <v>22786</v>
+      </c>
+      <c r="F15" s="7">
+        <v>15658</v>
+      </c>
+      <c r="G15" s="5">
+        <v>63</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6">
-        <v>207509.0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>172676.0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>20650.0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>14127.0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>56.0</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9" t="s">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="C16" s="6">
+        <v>207508</v>
+      </c>
+      <c r="D16" s="7">
+        <v>193657</v>
+      </c>
+      <c r="E16" s="7">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7">
+        <v>13783</v>
+      </c>
+      <c r="G16" s="5">
+        <v>40</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6">
-        <v>207509.0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>169002.0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>22786.0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>15658.0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>63.0</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="6">
+        <v>207507</v>
+      </c>
+      <c r="D17" s="7">
+        <v>13205</v>
+      </c>
+      <c r="E17" s="7">
+        <v>29257</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3254</v>
+      </c>
+      <c r="G17" s="5">
+        <v>161791</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6">
-        <v>207508.0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>193657.0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>28.0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>13783.0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="7" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="6">
+        <v>207506</v>
+      </c>
+      <c r="D18" s="7">
+        <v>190988</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2469</v>
+      </c>
+      <c r="F18" s="7">
+        <v>14005</v>
+      </c>
+      <c r="G18" s="5">
+        <v>44</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="6">
-        <v>207507.0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>13205.0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>29257.0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>3254.0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>161791.0</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="9" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="C19" s="6">
+        <v>207506</v>
+      </c>
+      <c r="D19" s="7">
+        <v>183753</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8859</v>
+      </c>
+      <c r="F19" s="7">
+        <v>14867</v>
+      </c>
+      <c r="G19" s="5">
+        <v>27</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="6">
-        <v>207506.0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>190988.0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>2469.0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>14005.0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>44.0</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9" t="s">
+      <c r="J19" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="C20" s="6">
+        <v>207504</v>
+      </c>
+      <c r="D20" s="7">
+        <v>178300</v>
+      </c>
+      <c r="E20" s="7">
+        <v>13178</v>
+      </c>
+      <c r="F20" s="7">
+        <v>15982</v>
+      </c>
+      <c r="G20" s="5">
+        <v>44</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="J20" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="6">
-        <v>207506.0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>183753.0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>8859.0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>14867.0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="6">
-        <v>207504.0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>178300.0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>13178.0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>15982.0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>44.0</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C21" s="6">
-        <v>207503.0</v>
+        <v>207503</v>
       </c>
       <c r="D21" s="7">
-        <v>183332.0</v>
+        <v>183332</v>
       </c>
       <c r="E21" s="7">
-        <v>9422.0</v>
+        <v>9422</v>
       </c>
       <c r="F21" s="7">
-        <v>14680.0</v>
+        <v>14680</v>
       </c>
       <c r="G21" s="5">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>58</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6">
-        <v>207501.0</v>
+        <v>207501</v>
       </c>
       <c r="D22" s="7">
-        <v>140388.0</v>
+        <v>140388</v>
       </c>
       <c r="E22" s="7">
-        <v>47828.0</v>
+        <v>47828</v>
       </c>
       <c r="F22" s="7">
-        <v>19204.0</v>
+        <v>19204</v>
       </c>
       <c r="G22" s="5">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>61</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C23" s="6">
-        <v>207500.0</v>
+        <v>207500</v>
       </c>
       <c r="D23" s="7">
-        <v>170256.0</v>
+        <v>170256</v>
       </c>
       <c r="E23" s="7">
-        <v>20930.0</v>
+        <v>20930</v>
       </c>
       <c r="F23" s="7">
-        <v>16229.0</v>
+        <v>16229</v>
       </c>
       <c r="G23" s="5">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="6">
+        <v>207499</v>
+      </c>
+      <c r="D24" s="7">
+        <v>163890</v>
+      </c>
+      <c r="E24" s="7">
+        <v>27761</v>
+      </c>
+      <c r="F24" s="7">
+        <v>15734</v>
+      </c>
+      <c r="G24" s="5">
+        <v>114</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="6">
+        <v>207499</v>
+      </c>
+      <c r="D25" s="7">
+        <v>174785</v>
+      </c>
+      <c r="E25" s="7">
+        <v>17810</v>
+      </c>
+      <c r="F25" s="7">
+        <v>14821</v>
+      </c>
+      <c r="G25" s="5">
+        <v>83</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="7" t="s">
+    </row>
+    <row r="26" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="6">
-        <v>207499.0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>163890.0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>27761.0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>15734.0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>114.0</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="6">
-        <v>207499.0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>174785.0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>17810.0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>14821.0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>83.0</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="C26" s="6">
-        <v>207499.0</v>
+        <v>207499</v>
       </c>
       <c r="D26" s="7">
-        <v>182174.0</v>
+        <v>182174</v>
       </c>
       <c r="E26" s="7">
-        <v>10744.0</v>
+        <v>10744</v>
       </c>
       <c r="F26" s="7">
-        <v>14497.0</v>
+        <v>14497</v>
       </c>
       <c r="G26" s="5">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>72</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C27" s="6">
-        <v>207499.0</v>
+        <v>207499</v>
       </c>
       <c r="D27" s="7">
-        <v>147677.0</v>
+        <v>147677</v>
       </c>
       <c r="E27" s="7">
-        <v>45253.0</v>
+        <v>45253</v>
       </c>
       <c r="F27" s="7">
-        <v>14465.0</v>
+        <v>14465</v>
       </c>
       <c r="G27" s="5">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="6">
+        <v>207498</v>
+      </c>
+      <c r="D28" s="7">
+        <v>61010</v>
+      </c>
+      <c r="E28" s="7">
+        <v>121476</v>
+      </c>
+      <c r="F28" s="7">
+        <v>24929</v>
+      </c>
+      <c r="G28" s="5">
+        <v>83</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="6">
+        <v>207498</v>
+      </c>
+      <c r="D29" s="7">
+        <v>42332</v>
+      </c>
+      <c r="E29" s="7">
+        <v>138591</v>
+      </c>
+      <c r="F29" s="7">
+        <v>26501</v>
+      </c>
+      <c r="G29" s="5">
+        <v>74</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="6">
-        <v>207498.0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>61010.0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>121476.0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>24929.0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>83.0</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="6">
-        <v>207498.0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>42332.0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>138591.0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>26501.0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>74.0</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C30" s="6">
-        <v>207497.0</v>
+        <v>207497</v>
       </c>
       <c r="D30" s="7">
-        <v>185221.0</v>
+        <v>185221</v>
       </c>
       <c r="E30" s="7">
-        <v>7079.0</v>
+        <v>7079</v>
       </c>
       <c r="F30" s="7">
-        <v>15170.0</v>
+        <v>15170</v>
       </c>
       <c r="G30" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>84</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C31" s="6">
-        <v>207497.0</v>
+        <v>207497</v>
       </c>
       <c r="D31" s="7">
-        <v>116420.0</v>
+        <v>116420</v>
       </c>
       <c r="E31" s="7">
-        <v>72329.0</v>
+        <v>72329</v>
       </c>
       <c r="F31" s="7">
-        <v>18372.0</v>
+        <v>18372</v>
       </c>
       <c r="G31" s="5">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="9" t="s">
-        <v>94</v>
+      <c r="I31" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C32" s="6">
-        <v>207496.0</v>
+        <v>207496</v>
       </c>
       <c r="D32" s="7">
-        <v>181080.0</v>
+        <v>181080</v>
       </c>
       <c r="E32" s="7">
-        <v>10527.0</v>
+        <v>10527</v>
       </c>
       <c r="F32" s="7">
-        <v>15842.0</v>
+        <v>15842</v>
       </c>
       <c r="G32" s="5">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C33" s="6">
-        <v>207496.0</v>
+        <v>207496</v>
       </c>
       <c r="D33" s="7">
-        <v>181599.0</v>
+        <v>181599</v>
       </c>
       <c r="E33" s="7">
-        <v>10325.0</v>
+        <v>10325</v>
       </c>
       <c r="F33" s="7">
-        <v>15524.0</v>
+        <v>15524</v>
       </c>
       <c r="G33" s="5">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="9" t="s">
-        <v>100</v>
+      <c r="I33" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C34" s="6">
-        <v>207496.0</v>
+        <v>207496</v>
       </c>
       <c r="D34" s="7">
-        <v>76971.0</v>
+        <v>76971</v>
       </c>
       <c r="E34" s="7">
-        <v>108477.0</v>
+        <v>108477</v>
       </c>
       <c r="F34" s="7">
-        <v>21964.0</v>
+        <v>21964</v>
       </c>
       <c r="G34" s="5">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="6">
+        <v>207494</v>
+      </c>
+      <c r="D35" s="7">
+        <v>7495</v>
+      </c>
+      <c r="E35" s="7">
+        <v>167975</v>
+      </c>
+      <c r="F35" s="7">
+        <v>31935</v>
+      </c>
+      <c r="G35" s="5">
+        <v>89</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="6">
+        <v>207486</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4607</v>
+      </c>
+      <c r="E36" s="7">
+        <v>21494</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2615</v>
+      </c>
+      <c r="G36" s="5">
+        <v>178770</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="L36" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="4">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="5" t="s">
+    <row r="37" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="6">
-        <v>207494.0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>7495.0</v>
-      </c>
-      <c r="E35" s="7">
-        <v>167975.0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>31935.0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>89.0</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="6">
-        <v>207486.0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>4607.0</v>
-      </c>
-      <c r="E36" s="7">
-        <v>21494.0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>2615.0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>178770.0</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="C37" s="6">
-        <v>207484.0</v>
+        <v>207484</v>
       </c>
       <c r="D37" s="7">
-        <v>178465.0</v>
+        <v>178465</v>
       </c>
       <c r="E37" s="7">
-        <v>13461.0</v>
+        <v>13461</v>
       </c>
       <c r="F37" s="7">
-        <v>15522.0</v>
+        <v>15522</v>
       </c>
       <c r="G37" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>106</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C38" s="6">
-        <v>207477.0</v>
+        <v>207477</v>
       </c>
       <c r="D38" s="7">
-        <v>87820.0</v>
+        <v>87820</v>
       </c>
       <c r="E38" s="7">
-        <v>93989.0</v>
+        <v>93989</v>
       </c>
       <c r="F38" s="7">
-        <v>25584.0</v>
+        <v>25584</v>
       </c>
       <c r="G38" s="5">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>110</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C39" s="6">
-        <v>207461.0</v>
+        <v>207461</v>
       </c>
       <c r="D39" s="7">
-        <v>191362.0</v>
+        <v>191362</v>
       </c>
       <c r="E39" s="7">
-        <v>1303.0</v>
+        <v>1303</v>
       </c>
       <c r="F39" s="7">
-        <v>14786.0</v>
+        <v>14786</v>
       </c>
       <c r="G39" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="6">
+        <v>207461</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2146</v>
+      </c>
+      <c r="E40" s="7">
+        <v>5075</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1149</v>
+      </c>
+      <c r="G40" s="5">
+        <v>199091</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="6">
+        <v>207458</v>
+      </c>
+      <c r="D41" s="7">
+        <v>122649</v>
+      </c>
+      <c r="E41" s="7">
+        <v>61801</v>
+      </c>
+      <c r="F41" s="7">
+        <v>22542</v>
+      </c>
+      <c r="G41" s="5">
+        <v>466</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="C42" s="6">
+        <v>207455</v>
+      </c>
+      <c r="D42" s="7">
+        <v>25459</v>
+      </c>
+      <c r="E42" s="7">
+        <v>5938</v>
+      </c>
+      <c r="F42" s="7">
+        <v>11574</v>
+      </c>
+      <c r="G42" s="5">
+        <v>164484</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="J42" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="6">
-        <v>207461.0</v>
-      </c>
-      <c r="D40" s="7">
-        <v>2146.0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>5075.0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1149.0</v>
-      </c>
-      <c r="G40" s="5">
-        <v>199091.0</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="14" t="s">
+    </row>
+    <row r="43" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="C43" s="6">
+        <v>207445</v>
+      </c>
+      <c r="D43" s="7">
+        <v>163337</v>
+      </c>
+      <c r="E43" s="7">
+        <v>28141</v>
+      </c>
+      <c r="F43" s="7">
+        <v>15888</v>
+      </c>
+      <c r="G43" s="5">
+        <v>79</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="J43" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="6">
-        <v>207458.0</v>
-      </c>
-      <c r="D41" s="7">
-        <v>122649.0</v>
-      </c>
-      <c r="E41" s="7">
-        <v>61801.0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>22542.0</v>
-      </c>
-      <c r="G41" s="5">
-        <v>466.0</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9" t="s">
+    </row>
+    <row r="44" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="6">
-        <v>207455.0</v>
-      </c>
-      <c r="D42" s="7">
-        <v>25459.0</v>
-      </c>
-      <c r="E42" s="7">
-        <v>5938.0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>11574.0</v>
-      </c>
-      <c r="G42" s="5">
-        <v>164484.0</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="6">
-        <v>207445.0</v>
-      </c>
-      <c r="D43" s="7">
-        <v>163337.0</v>
-      </c>
-      <c r="E43" s="7">
-        <v>28141.0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>15888.0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>79.0</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="C44" s="6">
-        <v>207434.0</v>
+        <v>207434</v>
       </c>
       <c r="D44" s="7">
-        <v>140411.0</v>
+        <v>140411</v>
       </c>
       <c r="E44" s="7">
-        <v>49749.0</v>
+        <v>49749</v>
       </c>
       <c r="F44" s="7">
-        <v>17203.0</v>
+        <v>17203</v>
       </c>
       <c r="G44" s="5">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="6">
+        <v>207433</v>
+      </c>
+      <c r="D45" s="7">
+        <v>152039</v>
+      </c>
+      <c r="E45" s="7">
+        <v>39294</v>
+      </c>
+      <c r="F45" s="7">
+        <v>16042</v>
+      </c>
+      <c r="G45" s="5">
+        <v>58</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="6">
+        <v>207430</v>
+      </c>
+      <c r="D46" s="7">
+        <v>145838</v>
+      </c>
+      <c r="E46" s="7">
+        <v>44071</v>
+      </c>
+      <c r="F46" s="7">
+        <v>17480</v>
+      </c>
+      <c r="G46" s="5">
+        <v>41</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="J44" s="7" t="s">
+    </row>
+    <row r="47" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="C47" s="6">
+        <v>207411</v>
+      </c>
+      <c r="D47" s="7">
+        <v>128823</v>
+      </c>
+      <c r="E47" s="7">
+        <v>43897</v>
+      </c>
+      <c r="F47" s="7">
+        <v>15842</v>
+      </c>
+      <c r="G47" s="5">
+        <v>18849</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="6">
-        <v>207433.0</v>
-      </c>
-      <c r="D45" s="7">
-        <v>152039.0</v>
-      </c>
-      <c r="E45" s="7">
-        <v>39294.0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>16042.0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>58.0</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J45" s="7" t="s">
+    </row>
+    <row r="48" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="C48" s="6">
+        <v>207407</v>
+      </c>
+      <c r="D48" s="7">
+        <v>121621</v>
+      </c>
+      <c r="E48" s="7">
+        <v>69966</v>
+      </c>
+      <c r="F48" s="7">
+        <v>15758</v>
+      </c>
+      <c r="G48" s="5">
+        <v>62</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4">
-        <v>45.0</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="J48" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="6">
-        <v>207430.0</v>
-      </c>
-      <c r="D46" s="7">
-        <v>145838.0</v>
-      </c>
-      <c r="E46" s="7">
-        <v>44071.0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>17480.0</v>
-      </c>
-      <c r="G46" s="5">
-        <v>41.0</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="9" t="s">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="6">
-        <v>207411.0</v>
-      </c>
-      <c r="D47" s="7">
-        <v>128823.0</v>
-      </c>
-      <c r="E47" s="7">
-        <v>43897.0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>15842.0</v>
-      </c>
-      <c r="G47" s="5">
-        <v>18849.0</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4">
-        <v>47.0</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="6">
-        <v>207407.0</v>
-      </c>
-      <c r="D48" s="7">
-        <v>121621.0</v>
-      </c>
-      <c r="E48" s="7">
-        <v>69966.0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>15758.0</v>
-      </c>
-      <c r="G48" s="5">
-        <v>62.0</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="C49" s="6">
-        <v>207401.0</v>
+        <v>207401</v>
       </c>
       <c r="D49" s="7">
-        <v>121648.0</v>
+        <v>121648</v>
       </c>
       <c r="E49" s="7">
-        <v>68371.0</v>
+        <v>68371</v>
       </c>
       <c r="F49" s="7">
-        <v>17310.0</v>
+        <v>17310</v>
       </c>
       <c r="G49" s="5">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50">
+        <v>144</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C50" s="6">
-        <v>207365.0</v>
+        <v>207365</v>
       </c>
       <c r="D50" s="7">
-        <v>54245.0</v>
+        <v>54245</v>
       </c>
       <c r="E50" s="7">
-        <v>130167.0</v>
+        <v>130167</v>
       </c>
       <c r="F50" s="7">
-        <v>22681.0</v>
+        <v>22681</v>
       </c>
       <c r="G50" s="5">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K50" s="13"/>
-    </row>
-    <row r="51">
+        <v>147</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C51" s="6">
-        <v>207364.0</v>
+        <v>207364</v>
       </c>
       <c r="D51" s="7">
-        <v>138187.0</v>
+        <v>138187</v>
       </c>
       <c r="E51" s="7">
-        <v>53031.0</v>
+        <v>53031</v>
       </c>
       <c r="F51" s="7">
-        <v>15924.0</v>
+        <v>15924</v>
       </c>
       <c r="G51" s="5">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+        <v>150</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
@@ -3895,60 +3923,63 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I4"/>
-    <hyperlink r:id="rId2" ref="I5"/>
-    <hyperlink r:id="rId3" ref="J5"/>
-    <hyperlink r:id="rId4" ref="I6"/>
-    <hyperlink r:id="rId5" ref="I7"/>
-    <hyperlink r:id="rId6" ref="I8"/>
-    <hyperlink r:id="rId7" ref="I9"/>
-    <hyperlink r:id="rId8" ref="J9"/>
-    <hyperlink r:id="rId9" ref="I10"/>
-    <hyperlink r:id="rId10" ref="I11"/>
-    <hyperlink r:id="rId11" ref="I12"/>
-    <hyperlink r:id="rId12" ref="J12"/>
-    <hyperlink r:id="rId13" ref="I13"/>
-    <hyperlink r:id="rId14" ref="I14"/>
-    <hyperlink r:id="rId15" ref="I15"/>
-    <hyperlink r:id="rId16" ref="I16"/>
-    <hyperlink r:id="rId17" ref="I17"/>
-    <hyperlink r:id="rId18" ref="J17"/>
-    <hyperlink r:id="rId19" ref="I18"/>
-    <hyperlink r:id="rId20" ref="J18"/>
-    <hyperlink r:id="rId21" ref="I19"/>
-    <hyperlink r:id="rId22" ref="I20"/>
-    <hyperlink r:id="rId23" ref="J21"/>
-    <hyperlink r:id="rId24" ref="J22"/>
-    <hyperlink r:id="rId25" ref="I24"/>
-    <hyperlink r:id="rId26" ref="I25"/>
-    <hyperlink r:id="rId27" ref="J25"/>
-    <hyperlink r:id="rId28" ref="J26"/>
-    <hyperlink r:id="rId29" ref="J27"/>
-    <hyperlink r:id="rId30" ref="I28"/>
-    <hyperlink r:id="rId31" ref="J28"/>
-    <hyperlink r:id="rId32" ref="I29"/>
-    <hyperlink r:id="rId33" ref="J30"/>
-    <hyperlink r:id="rId34" ref="I31"/>
-    <hyperlink r:id="rId35" ref="I33"/>
-    <hyperlink r:id="rId36" ref="I35"/>
-    <hyperlink r:id="rId37" ref="I36"/>
-    <hyperlink r:id="rId38" ref="J37"/>
-    <hyperlink r:id="rId39" ref="J38"/>
-    <hyperlink r:id="rId40" ref="I41"/>
-    <hyperlink r:id="rId41" ref="I42"/>
-    <hyperlink r:id="rId42" ref="I43"/>
-    <hyperlink r:id="rId43" ref="J43"/>
-    <hyperlink r:id="rId44" ref="I45"/>
-    <hyperlink r:id="rId45" ref="I46"/>
-    <hyperlink r:id="rId46" ref="J46"/>
-    <hyperlink r:id="rId47" ref="I47"/>
-    <hyperlink r:id="rId48" ref="J47"/>
-    <hyperlink r:id="rId49" ref="I48"/>
-    <hyperlink r:id="rId50" ref="J48"/>
-    <hyperlink r:id="rId51" ref="J49"/>
-    <hyperlink r:id="rId52" ref="J50"/>
-    <hyperlink r:id="rId53" ref="J51"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J21" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J22" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I28" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I29" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J30" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I31" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I33" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J38" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J47" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I48" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J48" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J49" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J50" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J51" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J3" r:id="rId54" display="https://www.usenix.org/legacy/publications/library/proceedings/usenix03/tech/freenix03/full_papers/gruenbacher/gruenbacher_html/main.html _x000a_This is access controls… collect data using chmod_x000a_" xr:uid="{5358ACEB-8E19-AC44-A876-9261111CFDA7}"/>
+    <hyperlink ref="J10" r:id="rId55" xr:uid="{5CBF6622-7B12-EA4C-A083-EDE64524C227}"/>
+    <hyperlink ref="J19" r:id="rId56" location="AEN21875" xr:uid="{87BABCAB-F570-0540-8DC3-D17FBD06664D}"/>
   </hyperlinks>
-  <drawing r:id="rId54"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fuzzing_rationale.xlsx
+++ b/Fuzzing_rationale.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanbrigham/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanbrigham/GithubProjects/NYUInternship/pop-paths-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C6AB1-FA5C-764F-8639-C46B6FC2DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDDE6D0-9A75-A74E-9A7D-4AA09A90DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="500" windowWidth="21360" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1884,7 +1896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1965,8 +1977,33 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2009,6 +2046,18 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2023,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2057,6 +2106,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2287,8 +2346,8 @@
   </sheetPr>
   <dimension ref="A1:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2362,7 +2421,7 @@
       <c r="AO1" s="3"/>
     </row>
     <row r="2" spans="1:41" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2383,7 +2442,7 @@
       <c r="G2" s="5">
         <v>18</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="7" t="s">
         <v>153</v>
       </c>
@@ -2444,7 +2503,7 @@
       <c r="G3" s="5">
         <v>45</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="18" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2533,7 @@
       <c r="G4" s="5">
         <v>29</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
@@ -2504,7 +2563,7 @@
       <c r="G5" s="5">
         <v>75</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
@@ -2516,7 +2575,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6">
@@ -2534,7 +2593,7 @@
       <c r="G6" s="5">
         <v>64</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2563,7 +2622,7 @@
       <c r="G7" s="5">
         <v>43</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2593,7 +2652,7 @@
       <c r="G8" s="5">
         <v>48</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2605,7 +2664,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="6">
@@ -2623,7 +2682,7 @@
       <c r="G9" s="5">
         <v>42</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="8" t="s">
         <v>27</v>
       </c>
@@ -2653,7 +2712,7 @@
       <c r="G10" s="5">
         <v>43</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="8" t="s">
         <v>30</v>
       </c>
@@ -2683,7 +2742,7 @@
       <c r="G11" s="5">
         <v>46</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="8" t="s">
         <v>32</v>
       </c>
@@ -2713,7 +2772,7 @@
       <c r="G12" s="5">
         <v>27</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="8" t="s">
         <v>35</v>
       </c>
@@ -2725,7 +2784,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="6">
@@ -2743,7 +2802,7 @@
       <c r="G13" s="5">
         <v>22</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="10" t="s">
         <v>38</v>
       </c>
@@ -2753,7 +2812,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6">
@@ -2771,7 +2830,7 @@
       <c r="G14" s="5">
         <v>56</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="8" t="s">
         <v>40</v>
       </c>
@@ -2801,7 +2860,7 @@
       <c r="G15" s="5">
         <v>63</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="8" t="s">
         <v>43</v>
       </c>
@@ -2829,7 +2888,7 @@
       <c r="G16" s="5">
         <v>40</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="8" t="s">
         <v>45</v>
       </c>
@@ -2841,7 +2900,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="6">
@@ -2859,7 +2918,7 @@
       <c r="G17" s="5">
         <v>161791</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="8" t="s">
         <v>48</v>
       </c>
@@ -2871,7 +2930,7 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="6">
@@ -2889,7 +2948,7 @@
       <c r="G18" s="5">
         <v>44</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="8" t="s">
         <v>51</v>
       </c>
@@ -2901,7 +2960,7 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="6">
@@ -2919,7 +2978,7 @@
       <c r="G19" s="5">
         <v>27</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="8" t="s">
         <v>54</v>
       </c>
@@ -2931,7 +2990,7 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="6">
@@ -2949,7 +3008,7 @@
       <c r="G20" s="5">
         <v>44</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="8" t="s">
         <v>56</v>
       </c>
@@ -2961,7 +3020,7 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="6">
@@ -2979,7 +3038,7 @@
       <c r="G21" s="5">
         <v>69</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="7" t="s">
         <v>58</v>
       </c>
@@ -2991,7 +3050,7 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="6">
@@ -3009,7 +3068,7 @@
       <c r="G22" s="5">
         <v>81</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="7" t="s">
         <v>61</v>
       </c>
@@ -3039,7 +3098,7 @@
       <c r="G23" s="5">
         <v>85</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="7" t="s">
         <v>64</v>
       </c>
@@ -3051,7 +3110,7 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="6">
@@ -3069,7 +3128,7 @@
       <c r="G24" s="5">
         <v>114</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="8" t="s">
         <v>67</v>
       </c>
@@ -3099,7 +3158,7 @@
       <c r="G25" s="5">
         <v>83</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="8" t="s">
         <v>69</v>
       </c>
@@ -3129,7 +3188,7 @@
       <c r="G26" s="5">
         <v>84</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="7" t="s">
         <v>72</v>
       </c>
@@ -3141,7 +3200,7 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="6">
@@ -3159,7 +3218,7 @@
       <c r="G27" s="5">
         <v>104</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="7" t="s">
         <v>75</v>
       </c>
@@ -3189,7 +3248,7 @@
       <c r="G28" s="5">
         <v>83</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="8" t="s">
         <v>78</v>
       </c>
@@ -3220,7 +3279,7 @@
       <c r="G29" s="5">
         <v>74</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="8" t="s">
         <v>81</v>
       </c>
@@ -3233,7 +3292,7 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="6">
@@ -3251,7 +3310,7 @@
       <c r="G30" s="5">
         <v>27</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="7" t="s">
         <v>84</v>
       </c>
@@ -3281,7 +3340,7 @@
       <c r="G31" s="5">
         <v>376</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="8" t="s">
         <v>87</v>
       </c>
@@ -3311,7 +3370,7 @@
       <c r="G32" s="5">
         <v>47</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="7" t="s">
         <v>90</v>
       </c>
@@ -3371,7 +3430,7 @@
       <c r="G34" s="5">
         <v>84</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="7" t="s">
         <v>96</v>
       </c>
@@ -3383,7 +3442,7 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="23" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="6">
@@ -3401,7 +3460,7 @@
       <c r="G35" s="5">
         <v>89</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="8" t="s">
         <v>99</v>
       </c>
@@ -3413,7 +3472,7 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="6">
@@ -3431,7 +3490,7 @@
       <c r="G36" s="5">
         <v>178770</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="8" t="s">
         <v>102</v>
       </c>
@@ -3464,7 +3523,7 @@
       <c r="G37" s="5">
         <v>36</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="7" t="s">
         <v>106</v>
       </c>
@@ -3479,7 +3538,7 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="6">
@@ -3497,7 +3556,7 @@
       <c r="G38" s="5">
         <v>84</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="7" t="s">
         <v>110</v>
       </c>
@@ -3512,7 +3571,7 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C39" s="6">
@@ -3530,7 +3589,7 @@
       <c r="G39" s="5">
         <v>10</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="7" t="s">
         <v>114</v>
       </c>
@@ -3542,7 +3601,7 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="6">
@@ -3560,7 +3619,7 @@
       <c r="G40" s="5">
         <v>199091</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="12" t="s">
         <v>117</v>
       </c>
@@ -3572,7 +3631,7 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="6">
@@ -3590,7 +3649,7 @@
       <c r="G41" s="5">
         <v>466</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="8" t="s">
         <v>120</v>
       </c>
@@ -3602,7 +3661,7 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="23" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="6">
@@ -3620,7 +3679,7 @@
       <c r="G42" s="5">
         <v>164484</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="8" t="s">
         <v>122</v>
       </c>
@@ -3650,7 +3709,7 @@
       <c r="G43" s="5">
         <v>79</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="8" t="s">
         <v>125</v>
       </c>
@@ -3662,7 +3721,7 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="6">
@@ -3680,7 +3739,7 @@
       <c r="G44" s="5">
         <v>71</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="7" t="s">
         <v>128</v>
       </c>
@@ -3692,7 +3751,7 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="23" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="6">
@@ -3710,7 +3769,7 @@
       <c r="G45" s="5">
         <v>58</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="8" t="s">
         <v>131</v>
       </c>
@@ -3743,7 +3802,7 @@
       <c r="G46" s="5">
         <v>41</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="8" t="s">
         <v>135</v>
       </c>
@@ -3773,8 +3832,8 @@
       <c r="G47" s="5">
         <v>18849</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="26"/>
+      <c r="I47" s="24" t="s">
         <v>138</v>
       </c>
       <c r="J47" s="8" t="s">
@@ -3785,7 +3844,7 @@
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C48" s="6">
@@ -3803,7 +3862,7 @@
       <c r="G48" s="5">
         <v>62</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="8" t="s">
         <v>141</v>
       </c>
@@ -3834,7 +3893,7 @@
       <c r="G49" s="5">
         <v>72</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="7" t="s">
         <v>144</v>
       </c>
@@ -3866,7 +3925,7 @@
         <v>272</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="25" t="s">
         <v>147</v>
       </c>
       <c r="J50" s="14" t="s">
@@ -3878,7 +3937,7 @@
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="23" t="s">
         <v>149</v>
       </c>
       <c r="C51" s="6">

--- a/Fuzzing_rationale.xlsx
+++ b/Fuzzing_rationale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanbrigham/GithubProjects/NYUInternship/pop-paths-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDDE6D0-9A75-A74E-9A7D-4AA09A90DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FC69F-4FA3-1F4F-9207-BC069A6C8718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="500" windowWidth="21360" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8800" yWindow="500" windowWidth="20000" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2003,7 +2003,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2058,6 +2058,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2072,7 +2078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2116,6 +2122,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2346,8 +2353,8 @@
   </sheetPr>
   <dimension ref="A1:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3400,7 +3407,7 @@
       <c r="G33" s="5">
         <v>48</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="8" t="s">
         <v>93</v>
       </c>
@@ -3924,7 +3931,7 @@
       <c r="G50" s="5">
         <v>272</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="25" t="s">
         <v>147</v>
       </c>

--- a/Fuzzing_rationale.xlsx
+++ b/Fuzzing_rationale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanbrigham/GithubProjects/NYUInternship/pop-paths-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FC69F-4FA3-1F4F-9207-BC069A6C8718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ADD66C-B3AC-5644-964B-34CD85F23990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8800" yWindow="500" windowWidth="20000" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,7 +2003,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2058,12 +2058,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2078,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2122,7 +2116,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2353,8 +2346,8 @@
   </sheetPr>
   <dimension ref="A1:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3407,7 +3400,7 @@
       <c r="G33" s="5">
         <v>48</v>
       </c>
-      <c r="H33" s="27"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="8" t="s">
         <v>93</v>
       </c>
@@ -3931,7 +3924,7 @@
       <c r="G50" s="5">
         <v>272</v>
       </c>
-      <c r="H50" s="27"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="25" t="s">
         <v>147</v>
       </c>
@@ -3962,7 +3955,7 @@
       <c r="G51" s="5">
         <v>222</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="7" t="s">
         <v>150</v>
       </c>

--- a/Fuzzing_rationale.xlsx
+++ b/Fuzzing_rationale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanbrigham/GithubProjects/NYUInternship/pop-paths-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ADD66C-B3AC-5644-964B-34CD85F23990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE63D20-9B6E-2F49-B250-412637B10053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8800" yWindow="500" windowWidth="20000" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,7 +2003,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2050,12 +2050,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor rgb="FFB7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2107,7 +2101,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2115,7 +2108,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2346,8 +2340,8 @@
   </sheetPr>
   <dimension ref="A1:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2442,7 +2436,7 @@
       <c r="G2" s="5">
         <v>18</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="7" t="s">
         <v>153</v>
       </c>
@@ -2503,7 +2497,7 @@
       <c r="G3" s="5">
         <v>45</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="18" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2527,7 @@
       <c r="G4" s="5">
         <v>29</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2557,7 @@
       <c r="G5" s="5">
         <v>75</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
@@ -2575,7 +2569,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6">
@@ -2593,7 +2587,7 @@
       <c r="G6" s="5">
         <v>64</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2622,7 +2616,7 @@
       <c r="G7" s="5">
         <v>43</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2652,7 +2646,7 @@
       <c r="G8" s="5">
         <v>48</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2664,7 +2658,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="6">
@@ -2682,7 +2676,7 @@
       <c r="G9" s="5">
         <v>42</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="8" t="s">
         <v>27</v>
       </c>
@@ -2712,7 +2706,7 @@
       <c r="G10" s="5">
         <v>43</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="8" t="s">
         <v>30</v>
       </c>
@@ -2742,7 +2736,7 @@
       <c r="G11" s="5">
         <v>46</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="8" t="s">
         <v>32</v>
       </c>
@@ -2772,7 +2766,7 @@
       <c r="G12" s="5">
         <v>27</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="8" t="s">
         <v>35</v>
       </c>
@@ -2784,7 +2778,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="6">
@@ -2802,7 +2796,7 @@
       <c r="G13" s="5">
         <v>22</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="10" t="s">
         <v>38</v>
       </c>
@@ -2812,7 +2806,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6">
@@ -2830,7 +2824,7 @@
       <c r="G14" s="5">
         <v>56</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="8" t="s">
         <v>40</v>
       </c>
@@ -2860,7 +2854,7 @@
       <c r="G15" s="5">
         <v>63</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="8" t="s">
         <v>43</v>
       </c>
@@ -2888,7 +2882,7 @@
       <c r="G16" s="5">
         <v>40</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="8" t="s">
         <v>45</v>
       </c>
@@ -2900,7 +2894,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="6">
@@ -2918,7 +2912,7 @@
       <c r="G17" s="5">
         <v>161791</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="8" t="s">
         <v>48</v>
       </c>
@@ -2930,7 +2924,7 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="6">
@@ -2948,7 +2942,7 @@
       <c r="G18" s="5">
         <v>44</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="8" t="s">
         <v>51</v>
       </c>
@@ -2960,7 +2954,7 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="6">
@@ -2978,7 +2972,7 @@
       <c r="G19" s="5">
         <v>27</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="8" t="s">
         <v>54</v>
       </c>
@@ -2990,7 +2984,7 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="6">
@@ -3008,7 +3002,7 @@
       <c r="G20" s="5">
         <v>44</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="8" t="s">
         <v>56</v>
       </c>
@@ -3020,7 +3014,7 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="6">
@@ -3038,7 +3032,7 @@
       <c r="G21" s="5">
         <v>69</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="7" t="s">
         <v>58</v>
       </c>
@@ -3050,7 +3044,7 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="6">
@@ -3068,7 +3062,7 @@
       <c r="G22" s="5">
         <v>81</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="7" t="s">
         <v>61</v>
       </c>
@@ -3098,7 +3092,7 @@
       <c r="G23" s="5">
         <v>85</v>
       </c>
-      <c r="H23" s="22"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="7" t="s">
         <v>64</v>
       </c>
@@ -3110,7 +3104,7 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="6">
@@ -3128,7 +3122,7 @@
       <c r="G24" s="5">
         <v>114</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="8" t="s">
         <v>67</v>
       </c>
@@ -3158,7 +3152,7 @@
       <c r="G25" s="5">
         <v>83</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="8" t="s">
         <v>69</v>
       </c>
@@ -3188,7 +3182,7 @@
       <c r="G26" s="5">
         <v>84</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="7" t="s">
         <v>72</v>
       </c>
@@ -3200,7 +3194,7 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="6">
@@ -3218,7 +3212,7 @@
       <c r="G27" s="5">
         <v>104</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="7" t="s">
         <v>75</v>
       </c>
@@ -3248,7 +3242,7 @@
       <c r="G28" s="5">
         <v>83</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="8" t="s">
         <v>78</v>
       </c>
@@ -3279,7 +3273,7 @@
       <c r="G29" s="5">
         <v>74</v>
       </c>
-      <c r="H29" s="22"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="8" t="s">
         <v>81</v>
       </c>
@@ -3292,7 +3286,7 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="6">
@@ -3310,7 +3304,7 @@
       <c r="G30" s="5">
         <v>27</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="7" t="s">
         <v>84</v>
       </c>
@@ -3340,7 +3334,7 @@
       <c r="G31" s="5">
         <v>376</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="8" t="s">
         <v>87</v>
       </c>
@@ -3370,7 +3364,7 @@
       <c r="G32" s="5">
         <v>47</v>
       </c>
-      <c r="H32" s="22"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="7" t="s">
         <v>90</v>
       </c>
@@ -3400,7 +3394,7 @@
       <c r="G33" s="5">
         <v>48</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="8" t="s">
         <v>93</v>
       </c>
@@ -3430,7 +3424,7 @@
       <c r="G34" s="5">
         <v>84</v>
       </c>
-      <c r="H34" s="22"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="7" t="s">
         <v>96</v>
       </c>
@@ -3442,7 +3436,7 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="6">
@@ -3460,7 +3454,7 @@
       <c r="G35" s="5">
         <v>89</v>
       </c>
-      <c r="H35" s="22"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="8" t="s">
         <v>99</v>
       </c>
@@ -3472,7 +3466,7 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="6">
@@ -3490,7 +3484,7 @@
       <c r="G36" s="5">
         <v>178770</v>
       </c>
-      <c r="H36" s="22"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="8" t="s">
         <v>102</v>
       </c>
@@ -3523,7 +3517,7 @@
       <c r="G37" s="5">
         <v>36</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="7" t="s">
         <v>106</v>
       </c>
@@ -3538,7 +3532,7 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="6">
@@ -3556,7 +3550,7 @@
       <c r="G38" s="5">
         <v>84</v>
       </c>
-      <c r="H38" s="22"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="7" t="s">
         <v>110</v>
       </c>
@@ -3571,7 +3565,7 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C39" s="6">
@@ -3589,7 +3583,7 @@
       <c r="G39" s="5">
         <v>10</v>
       </c>
-      <c r="H39" s="22"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="7" t="s">
         <v>114</v>
       </c>
@@ -3601,7 +3595,7 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="6">
@@ -3619,7 +3613,7 @@
       <c r="G40" s="5">
         <v>199091</v>
       </c>
-      <c r="H40" s="22"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="12" t="s">
         <v>117</v>
       </c>
@@ -3631,7 +3625,7 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="6">
@@ -3649,7 +3643,7 @@
       <c r="G41" s="5">
         <v>466</v>
       </c>
-      <c r="H41" s="22"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="8" t="s">
         <v>120</v>
       </c>
@@ -3661,7 +3655,7 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="6">
@@ -3679,7 +3673,7 @@
       <c r="G42" s="5">
         <v>164484</v>
       </c>
-      <c r="H42" s="22"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="8" t="s">
         <v>122</v>
       </c>
@@ -3709,7 +3703,7 @@
       <c r="G43" s="5">
         <v>79</v>
       </c>
-      <c r="H43" s="22"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="8" t="s">
         <v>125</v>
       </c>
@@ -3721,7 +3715,7 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="6">
@@ -3739,7 +3733,7 @@
       <c r="G44" s="5">
         <v>71</v>
       </c>
-      <c r="H44" s="22"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="7" t="s">
         <v>128</v>
       </c>
@@ -3751,7 +3745,7 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="6">
@@ -3769,7 +3763,7 @@
       <c r="G45" s="5">
         <v>58</v>
       </c>
-      <c r="H45" s="22"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="8" t="s">
         <v>131</v>
       </c>
@@ -3802,7 +3796,7 @@
       <c r="G46" s="5">
         <v>41</v>
       </c>
-      <c r="H46" s="22"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="8" t="s">
         <v>135</v>
       </c>
@@ -3833,7 +3827,7 @@
         <v>18849</v>
       </c>
       <c r="H47" s="26"/>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="23" t="s">
         <v>138</v>
       </c>
       <c r="J47" s="8" t="s">
@@ -3844,7 +3838,7 @@
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>140</v>
       </c>
       <c r="C48" s="6">
@@ -3862,7 +3856,7 @@
       <c r="G48" s="5">
         <v>62</v>
       </c>
-      <c r="H48" s="22"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="8" t="s">
         <v>141</v>
       </c>
@@ -3893,7 +3887,7 @@
       <c r="G49" s="5">
         <v>72</v>
       </c>
-      <c r="H49" s="22"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="7" t="s">
         <v>144</v>
       </c>
@@ -3924,8 +3918,8 @@
       <c r="G50" s="5">
         <v>272</v>
       </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="25" t="s">
+      <c r="H50" s="25"/>
+      <c r="I50" s="24" t="s">
         <v>147</v>
       </c>
       <c r="J50" s="14" t="s">
@@ -3937,7 +3931,7 @@
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>149</v>
       </c>
       <c r="C51" s="6">
@@ -3955,7 +3949,7 @@
       <c r="G51" s="5">
         <v>222</v>
       </c>
-      <c r="H51" s="22"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="7" t="s">
         <v>150</v>
       </c>
